--- a/data/case1/5/P1_3.xlsx
+++ b/data/case1/5/P1_3.xlsx
@@ -61,167 +61,167 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.38498153113263811</v>
+        <v>0.38094952709161589</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0099999996013657722</v>
+        <v>-0.009999999637550161</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.054786033798361444</v>
+        <v>-0.0089999996318343989</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.011999999898396396</v>
+        <v>-0.011999999898019809</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0059999996044721726</v>
+        <v>-0.0059999996382789078</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0059999995978863296</v>
+        <v>-0.0059999996274342493</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.019999999523953704</v>
+        <v>-0.019999999552398506</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.019999999519136225</v>
+        <v>-0.019999999547315461</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0059999995855468669</v>
+        <v>-0.0059999996142998668</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0059999995805526396</v>
+        <v>-0.0059999996086617102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0044999995877645915</v>
+        <v>-0.0044999996156818156</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0059999995789561389</v>
+        <v>-0.0059999996063444527</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0059999995735537937</v>
+        <v>-0.0059999996003394784</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.011999999540964978</v>
+        <v>-0.01199999956709874</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0059999995708297504</v>
+        <v>-0.0059999995971162789</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0059999995697632702</v>
+        <v>-0.0059999995958497365</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0059999995682833429</v>
+        <v>-0.0059999995941266704</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0089999995525520404</v>
+        <v>-0.008999999578027662</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.008999999605361797</v>
+        <v>-0.0089999996418548278</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.0089999995928602416</v>
+        <v>-0.0089999996308884889</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.071859795630792256</v>
+        <v>-0.067184566937994017</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0089999995898533136</v>
+        <v>-0.0089999996280858419</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.008999999591652319</v>
+        <v>-0.0089999996285481387</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.041999999414809253</v>
+        <v>-0.041999999450112568</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.041999999411834743</v>
+        <v>-0.041999999447164704</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>0.065100579712037643</v>
+        <v>-0.021642298145721384</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0059999995972526143</v>
+        <v>-0.0059999996267672273</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0059999995931567796</v>
+        <v>-0.0059999996264306077</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.011999999559581198</v>
+        <v>-0.011999999595223798</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.019999999517347877</v>
+        <v>-0.019999999553996783</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.014999999542760989</v>
+        <v>-0.014999999583093171</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>0.014189460738748494</v>
+        <v>0.055691841994184088</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>-0.005999999589375804</v>
+        <v>-0.0059999996313200299</v>
       </c>
     </row>
   </sheetData>
